--- a/アクティビティ図.xlsx
+++ b/アクティビティ図.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/Kadai-Object/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0F3AB-D167-C945-9EF0-610AFD756A8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7788FC7D-A4F9-8F4C-B23C-3FC4786088E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="15240" windowHeight="15800" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="アクティビティ図_Q1" sheetId="2" r:id="rId1"/>
+    <sheet name="アクティビティ図_Q2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -25,12 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>リフトアップする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リフトアップしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リフトダウンする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リフトダウンしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -41,6 +58,13 @@
     <font>
       <sz val="6"/>
       <name val="MeiryoUI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -71,8 +95,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -89,6 +113,1801 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>567266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>795866</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931C68B7-0BAA-934F-BFEC-DBE834A320CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1519766" y="444500"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBEC5F6-533B-2643-A41F-4F5DC768B822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="1054100"/>
+          <a:ext cx="1701800" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータスを表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>376766</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="ひし形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367F2D38-EE83-2B44-B20D-9057A931915F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1329266" y="2119630"/>
+          <a:ext cx="609600" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB246E9-7BA0-D24F-BAB5-84DA4F176D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="673100"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C488D1-1E05-D046-8A93-C1E313C4311F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="1612900"/>
+          <a:ext cx="0" cy="506730"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F551D8-0248-D94E-92AA-4633AA9B222E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="2614930"/>
+          <a:ext cx="0" cy="579121"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>420159</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>743162</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>61652</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="グループ化 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA913590-E032-0349-B327-311653130B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3277659" y="8887615"/>
+          <a:ext cx="323003" cy="318037"/>
+          <a:chOff x="3051537" y="5027966"/>
+          <a:chExt cx="372095" cy="365935"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="円/楕円 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7150EFE9-7934-8144-91B9-E83D59F14AFF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3051537" y="5027966"/>
+            <a:ext cx="372095" cy="365935"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="円/楕円 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA82215-BAF7-0C43-BE71-B96BDC34A8C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3122718" y="5091528"/>
+            <a:ext cx="228600" cy="226235"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>265219</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>588222</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>61652</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="グループ化 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE19F018-8DEC-9249-817B-FB57D8EAD55D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5027719" y="8887615"/>
+          <a:ext cx="323003" cy="318037"/>
+          <a:chOff x="3051537" y="5027966"/>
+          <a:chExt cx="372095" cy="365935"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="円/楕円 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC87EB5F-3CA2-F442-B70B-068BDF5B2843}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3051537" y="5027966"/>
+            <a:ext cx="372095" cy="365935"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="円/楕円 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E514B9-058F-D546-BFD1-019D3C68DD46}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3122718" y="5091528"/>
+            <a:ext cx="228600" cy="226235"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="角丸四角形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218FCA9E-46E1-AF4C-87E9-B9CC53297C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="3194051"/>
+          <a:ext cx="1701800" cy="554567"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>車高を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>40mm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>194734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="角丸四角形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{730BD8AD-36B8-D741-9F3B-3BE26B5AB202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="4080934"/>
+          <a:ext cx="1701800" cy="554567"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>加速を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>20%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ダウン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="角丸四角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A5377D-B036-1943-BA48-8E6BA6A64EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="4959350"/>
+          <a:ext cx="1701800" cy="554567"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータスを表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>376766</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="ひし形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63A0DC0-59EA-5C49-997C-F7C44172DE0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1329266" y="5791200"/>
+          <a:ext cx="609600" cy="494454"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="角丸四角形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59841ACA-2840-7F4C-AACD-76E0102CD389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="6692900"/>
+          <a:ext cx="1701800" cy="558801"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>車高を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>40mm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ダウン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0DF69F-B1A9-1648-8F91-A4EEE95D208F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="7575550"/>
+          <a:ext cx="1701800" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>加速を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>20%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102AF1F7-EC10-3345-BC38-7C741085FB6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="8542867"/>
+          <a:ext cx="1701800" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータスを表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520065</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>843068</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>61652</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="グループ化 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9375DC5B-329D-E446-85AF-E7000E064FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1472565" y="8887614"/>
+          <a:ext cx="323003" cy="318038"/>
+          <a:chOff x="3051537" y="5027966"/>
+          <a:chExt cx="372095" cy="365935"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="円/楕円 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB71506-6957-814A-AB1F-BE7069275CBE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3051537" y="5027966"/>
+            <a:ext cx="372095" cy="365935"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="円/楕円 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968534B3-944F-7B40-95C1-F0A1BD1BFB2E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3122718" y="5091528"/>
+            <a:ext cx="228600" cy="226235"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>194734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A13438C-E85D-8F4A-BF43-B8340B26461A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="56" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="3748618"/>
+          <a:ext cx="0" cy="332316"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線コネクタ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515D0F1D-9093-A347-A625-A360BAE55350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="57" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="4635501"/>
+          <a:ext cx="0" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>27517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B933DE88-1115-904C-BBEB-EABD9A7819E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="2"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="5513917"/>
+          <a:ext cx="0" cy="277283"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49D018D-3EFB-3B46-BD7B-543409DCD355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="6285654"/>
+          <a:ext cx="0" cy="407246"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565A6609-91D2-ED41-B620-B4168C3C205F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="60" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="7251701"/>
+          <a:ext cx="0" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB50167-DB80-2B43-A69A-AFADC4BC2C76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="2"/>
+          <a:endCxn id="61" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="8134350"/>
+          <a:ext cx="0" cy="408517"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681567</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200814</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CBCABD3-868F-634A-B684-EAEDE7BA61AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="9101667"/>
+          <a:ext cx="1" cy="471747"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>426721</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200815</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="カギ線コネクタ 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C105C2-D669-1D4C-809D-61152D23AB2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1938866" y="2367280"/>
+          <a:ext cx="3250355" cy="7206135"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581661</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>200815</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="カギ線コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F61C444-18F5-4549-ABDE-7C95D0927419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1938866" y="6038427"/>
+          <a:ext cx="1500295" cy="3534988"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,19 +2207,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C011C4-C8AD-7A42-8137-37C519D5475F}">
-  <dimension ref="B1"/>
+  <dimension ref="C8:C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1"/>
-  </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/アクティビティ図.xlsx
+++ b/アクティビティ図.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/Kadai-Object/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE9BF01-C29A-0D42-BDCD-4C6935D04BB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD900E-E256-9348-B3E4-3566D42B2000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="アクティビティ図_Q2" sheetId="2" r:id="rId1"/>
+    <sheet name="アクティビティ図_Q3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -22,10 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1283,6 +1280,1216 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586316</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>814916</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FFFB9C-999C-E345-B31B-726C7BEBCB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1538816" y="228600"/>
+          <a:ext cx="228600" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>802216</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599016</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B18D3272-9ACF-8648-94FD-0FA653B1CED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="802216" y="1651000"/>
+          <a:ext cx="1701800" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>価格をランダムで決定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11885ADE-1831-434E-BD9C-8C5C3343726F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653116" y="444500"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA0F15-8466-C844-95A2-18E0642276B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653116" y="2197100"/>
+          <a:ext cx="0" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>802216</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599016</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF0BCF4-A2BE-A840-86C8-2813457A6532}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="802216" y="2527300"/>
+          <a:ext cx="1701800" cy="548218"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>合計金額に追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>802216</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599016</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1267FF4-F5B7-A640-AF0E-1B31CA34BB5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="802216" y="4356100"/>
+          <a:ext cx="1701800" cy="558801"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>平均金額計算</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>802216</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599016</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBDB9FE6-D88D-824E-B145-E042DA3FC20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="802216" y="5238750"/>
+          <a:ext cx="1701800" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータスを表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>539115</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>862118</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>201352</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792ED6AF-EB3B-4248-95D2-9B5D9F4758B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1491615" y="6083300"/>
+          <a:ext cx="323003" cy="290252"/>
+          <a:chOff x="3051537" y="5027966"/>
+          <a:chExt cx="372095" cy="365935"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="円/楕円 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC7295C-E21D-174B-87CA-516EAC03E782}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3051537" y="5027966"/>
+            <a:ext cx="372095" cy="365935"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="円/楕円 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C50A4C8-BE5A-684E-BEC7-8F3E27878B44}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3122718" y="5091528"/>
+            <a:ext cx="228600" cy="226235"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B1734E-95F3-6A47-8893-B02C044A2F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653116" y="3075518"/>
+          <a:ext cx="0" cy="353482"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7DCD71-AE83-074D-A597-3A3DD9A657DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653116" y="4038600"/>
+          <a:ext cx="0" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8A5133-7876-A245-89B6-4DBB3EB0A142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653116" y="4914901"/>
+          <a:ext cx="0" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700617</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D61AC5-4802-BB40-B669-2A44D79BF51D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653116" y="5797550"/>
+          <a:ext cx="1" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>808566</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>592666</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="片側の 2 つの角を丸めた四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D57760-C565-7B4C-B5D8-67C232A94CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="808566" y="711200"/>
+          <a:ext cx="1689100" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>合計金額計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACD3940-F56D-C64D-846B-8313012290D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653116" y="1320800"/>
+          <a:ext cx="0" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>808566</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>592666</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33688370-757E-D34F-9B39-0E7DECD892BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="808566" y="3429000"/>
+          <a:ext cx="1689100" cy="609600"/>
+          <a:chOff x="3517900" y="2298700"/>
+          <a:chExt cx="1689100" cy="609600"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="片側の 2 つの角を丸めた四角形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C0FEE8-62EC-8447-BAB8-182CFEC1F48A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3517900" y="2298700"/>
+            <a:ext cx="1689100" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2SameRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78674F1F-A0E1-514A-895D-22C43005E126}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3606800" y="2311400"/>
+            <a:ext cx="1549400" cy="558800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>合計金額計算</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>End</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="線吹き出し 1 (枠付き) 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A170A3C-9285-984F-A7E2-A96F2F0622F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="431800"/>
+          <a:ext cx="1625600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>車種分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>回繰り返す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1587,6 +2794,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C011C4-C8AD-7A42-8137-37C519D5475F}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B67203-5F89-064C-97CC-A6929D966DE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/アクティビティ図.xlsx
+++ b/アクティビティ図.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamamuratomoka/Desktop/Kadai-Object/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD900E-E256-9348-B3E4-3566D42B2000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D04AF4-8BE4-BF4A-9509-EC2438C510F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="17460" windowHeight="15800" firstSheet="1" activeTab="3" xr2:uid="{96ED304B-8079-DB4D-81B8-B3ADBBC8E2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="アクティビティ図_Q2" sheetId="2" r:id="rId1"/>
     <sheet name="アクティビティ図_Q3" sheetId="3" r:id="rId2"/>
+    <sheet name="アクティビティ図_Q4" sheetId="4" r:id="rId3"/>
+    <sheet name="アクティビティ図_Q5" sheetId="6" r:id="rId4"/>
+    <sheet name="アクティビティ図_Q5_old" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -23,6 +26,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2486,6 +2502,4260 @@
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>回繰り返す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>567266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>795866</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ADD011B-88D1-0E45-A472-703F4D4EFD63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1519766" y="228600"/>
+          <a:ext cx="228600" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49F7119-7908-3B4B-85B2-40C02FE710C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="762000"/>
+          <a:ext cx="1701800" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>定員を決定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E431562C-BD21-AD42-9305-65B4F46C842E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="444500"/>
+          <a:ext cx="0" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D2520F-A252-2D49-9832-776DE0173042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="1308100"/>
+          <a:ext cx="0" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{873AA9CB-DA47-B04A-A4B4-02D9C1FF13C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="1600200"/>
+          <a:ext cx="1701800" cy="548218"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>乗員数を決定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8527B9C-3EBA-EB45-9E67-9F8028DB63D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="4699000"/>
+          <a:ext cx="1701800" cy="558801"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>加速値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>*(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>乗員数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>*0.05)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612B908A-57B4-CE45-8905-9B23E43FFB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="5588000"/>
+          <a:ext cx="1701800" cy="478367"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータスを表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520065</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>843068</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125152</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D00128-A33F-094E-90DC-273944443503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1472565" y="6207914"/>
+          <a:ext cx="323003" cy="318038"/>
+          <a:chOff x="3051537" y="5027966"/>
+          <a:chExt cx="372095" cy="365935"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="円/楕円 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F3B6AE-801D-2C49-94B6-EA3D9BA3350E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3051537" y="5027966"/>
+            <a:ext cx="372095" cy="365935"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="円/楕円 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C064660F-485A-D148-ACF9-3A5556FE90DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3122718" y="5091528"/>
+            <a:ext cx="228600" cy="226235"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3760F14-CB59-F443-95C4-28239E81638F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="2148418"/>
+          <a:ext cx="4234" cy="277282"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6824E1-159A-FF4B-87CD-DFEED22EEDC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="3035301"/>
+          <a:ext cx="0" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A6601C-C8DC-594D-A9E9-E6484BB9A7F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1634066" y="3568700"/>
+          <a:ext cx="4234" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594E7CB3-161D-B145-AE09-6EBDBDD76030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="5257801"/>
+          <a:ext cx="0" cy="330199"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681567</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CE3722-7DB3-E74A-A670-D6CD7599E972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="6066367"/>
+          <a:ext cx="1" cy="370147"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 判断 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAC89B3-A2CD-F443-A1D0-210689AC88D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="2425700"/>
+          <a:ext cx="1955800" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>車種が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Nissan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>である</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>226484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C92DB22-E350-0340-8021-F35B88BA7AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3263900" y="3329517"/>
+          <a:ext cx="1701800" cy="554567"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>加速値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>*0.6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>226484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="カギ線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C186FB4-5D90-954D-A03A-0574E06837CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2773892" y="2773892"/>
+          <a:ext cx="230716" cy="2451100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711201</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129117</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="カギ線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E39D8C-AB47-9B40-A1A9-CC584817B661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="0"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3199342" y="2414059"/>
+          <a:ext cx="332317" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>567266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>795866</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3615BF-7A81-1A4E-8214-9B3A75ECF535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1519766" y="228600"/>
+          <a:ext cx="228600" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B99D82-9B89-1D4C-ACB4-C8E42C787B2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="762000"/>
+          <a:ext cx="1701800" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>レース距離を決定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBAE48C-16B0-7A45-AF68-A3FE2016C154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="444500"/>
+          <a:ext cx="0" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299242DB-E113-7648-89E0-357CFBEB70DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="1308100"/>
+          <a:ext cx="0" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF054E9-27D7-1E4E-8DD0-85FCC93508C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="1600200"/>
+          <a:ext cx="1701800" cy="548218"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ブレーキを踏む確率を決定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E865084-DC26-8B41-8BD2-E4AE28AA4B66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="4470400"/>
+          <a:ext cx="1701800" cy="558801"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>順位を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>783166</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579966</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56C83C5-4EA6-C84C-8432-A97466AA98D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="783166" y="5359400"/>
+          <a:ext cx="1701800" cy="478367"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータスを表示する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520065</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>843068</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>125152</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C14BE7C-21C0-514C-968F-C53D897B5D74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1472565" y="7350914"/>
+          <a:ext cx="323003" cy="318038"/>
+          <a:chOff x="3051537" y="5027966"/>
+          <a:chExt cx="372095" cy="365935"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="円/楕円 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1672F5F8-EA01-5A4F-BAEE-9739E73158EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3051537" y="5027966"/>
+            <a:ext cx="372095" cy="365935"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="円/楕円 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F300F176-B760-184C-A8C9-CB6D921541F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3122718" y="5091528"/>
+            <a:ext cx="228600" cy="226235"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE698DA5-9C70-564F-B924-51B54D6A1E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="2148418"/>
+          <a:ext cx="4234" cy="317499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>668866</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED76C30-7C64-5B43-A19C-3971D52F20E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1621366" y="3035301"/>
+          <a:ext cx="12700" cy="457199"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CC41B0-34B8-C84E-9C75-6F7548F6CCAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1634066" y="3568700"/>
+          <a:ext cx="4234" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308F0E01-CEE7-F94F-AEB1-637381FCC7EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="5029201"/>
+          <a:ext cx="0" cy="330199"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681566</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681567</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DED2ED-899D-4F46-B6FF-D7498117F480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634066" y="5837767"/>
+          <a:ext cx="1" cy="370147"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FD6B6F-0ECF-3D40-9D37-F086E53D5F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787400" y="2465917"/>
+          <a:ext cx="1701800" cy="670983"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>以下を計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>所要時間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>距離</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>加速</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>770466</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>567266</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2785D8-2FF3-6345-AF42-4BDAB6599018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="770466" y="3492500"/>
+          <a:ext cx="1701800" cy="558801"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>所要時間をソート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A441CE8F-75FF-CC45-AE19-EDD896DA1253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="3405717"/>
+          <a:ext cx="1701800" cy="874183"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>以下を計算</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>所要時間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>所要時間</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ブレーキにかかった時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>575733</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A011E86-9C63-FE47-9BB8-B2DD03D8DD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1528233" y="228600"/>
+          <a:ext cx="228600" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>793749</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A5CAF9-C6F1-AA4B-A871-B250D85DF1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="793749" y="7315200"/>
+          <a:ext cx="1701800" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>レース距離</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>レース距離</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>車の現在位置</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>690033</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>690033</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBC8D0D-540D-9F47-A189-A160BB7D48FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1642533" y="444500"/>
+          <a:ext cx="0" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>692149</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>692149</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D01D4E-2F5E-6B4B-BCBA-49F1E5DACA6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1644649" y="7988300"/>
+          <a:ext cx="0" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>793749</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4B2D95-1B4E-0349-8FF1-E35CC3B17E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="793749" y="3670300"/>
+          <a:ext cx="1701800" cy="548218"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>車の現在位置を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>802216</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>599016</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395146B8-B3DD-3B49-9770-839BE2552160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="802216" y="4356100"/>
+          <a:ext cx="1701800" cy="558801"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>順位を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>539115</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>862118</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>201352</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E9F986-E7BF-C04C-94D0-F771E02A14AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1491615" y="10883900"/>
+          <a:ext cx="323003" cy="290252"/>
+          <a:chOff x="3051537" y="5027966"/>
+          <a:chExt cx="372095" cy="365935"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="円/楕円 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899D781F-A72A-5F43-9162-C1DCEFF5A442}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3051537" y="5027966"/>
+            <a:ext cx="372095" cy="365935"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="円/楕円 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347888E3-376C-8548-BBC8-274562D87FE2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3122718" y="5091528"/>
+            <a:ext cx="228600" cy="226235"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>692149</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>692149</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4E6FE3-CDF7-704A-8894-61F22FD4E7FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1644649" y="8229600"/>
+          <a:ext cx="0" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>692149</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EDB613-0280-B646-95B7-F4F5A072D415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1644649" y="5181600"/>
+          <a:ext cx="8467" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4CFCAD-6C96-554D-98F5-C5D01C7E283B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653116" y="4914901"/>
+          <a:ext cx="0" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700616</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>700617</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D8FC59-081F-5741-A1D4-CB10897D74A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653116" y="5797550"/>
+          <a:ext cx="1" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="片側の 2 つの角を丸めた四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0165F942-BD44-8042-BE73-C1997598F317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800099" y="3238500"/>
+          <a:ext cx="1689100" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>レース</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>692149</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CC99E1-8359-814E-9503-0C6F3C3285DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1638300" y="2476500"/>
+          <a:ext cx="6349" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFA5820-2419-B748-B54C-1EA77BFB0B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="800099" y="9144000"/>
+          <a:ext cx="1689100" cy="609600"/>
+          <a:chOff x="3517900" y="2298700"/>
+          <a:chExt cx="1689100" cy="609600"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="片側の 2 つの角を丸めた四角形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611DF7E9-A56E-564A-A834-B836083C026F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3517900" y="2298700"/>
+            <a:ext cx="1689100" cy="609600"/>
+          </a:xfrm>
+          <a:prstGeom prst="round2SameRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF45ED5-1E64-1F4B-8581-F776189B0729}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3606800" y="2311400"/>
+            <a:ext cx="1549400" cy="558800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>レース</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>End</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>791633</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588433</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE08531-6DE6-7349-8868-E3D3495BBD30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="791633" y="825500"/>
+          <a:ext cx="1701800" cy="548218"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>レース距離を設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>690033</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>692149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD74FE17-0F74-BE42-8ADB-FA40976F7B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1642533" y="1373718"/>
+          <a:ext cx="2116" cy="1178982"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="フローチャート: 判断 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE38F2F-84D4-C445-A43B-E65DF52E9776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="4165600"/>
+          <a:ext cx="1955800" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>アクセルを踏む</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>692149</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1AD11C6-8032-4F42-AB02-30E1B9877726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="5105400"/>
+          <a:ext cx="6349" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="角丸四角形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7676E9F5-A08A-5443-A689-6E9B885DAAA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="4267200"/>
+          <a:ext cx="1701800" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ブレーキを踏む</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>791633</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588433</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="角丸四角形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639811EE-066B-E348-81E2-8CCA5ACA3722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="791633" y="1625600"/>
+          <a:ext cx="1701800" cy="548218"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ブレーキの割合を設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="カギ線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2182AA2D-01A3-3249-9974-3FF156134C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="0"/>
+          <a:endCxn id="34" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2984500" y="3581400"/>
+          <a:ext cx="317500" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="カギ線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C419CDE5-B106-E24E-B016-B452D36EE833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1651000" y="4800600"/>
+          <a:ext cx="2019300" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>766233</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563033</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>218018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="角丸四角形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8959FBC5-4CDA-474B-80B0-E33ADF5D3383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="766233" y="2413000"/>
+          <a:ext cx="1701800" cy="548218"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>車の現在位置を設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768349</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>565149</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="角丸四角形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3191F3-2915-DF4C-AF23-4546480B802C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="768349" y="6324600"/>
+          <a:ext cx="1701800" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>車の現在位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>車の現在位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>加速値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="線吹き出し 1 (枠付き) 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB42A7A-69BB-944C-9CCF-3361B4B9755C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="2997200"/>
+          <a:ext cx="1625600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ゴールした車の数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>=4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>なるまで行う</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2808,6 +7078,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B67203-5F89-064C-97CC-A6929D966DE3}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2475582E-9308-4541-8A83-9FEE76C46B1F}">
+  <dimension ref="C13:D16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="13" spans="3:4">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E0BE92-9BDD-3B49-A4AC-0BD43F9DBD41}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2816,4 +7125,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A452DAC-B3C2-1E46-8EC9-D97377BEBFF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>